--- a/quan.java/config/excel/任务.xlsx
+++ b/quan.java/config/excel/任务.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\quan.java\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5808A76-4A15-4C8B-9191-FDB368328578}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C47799-8F70-4F32-AC2D-B107F0571EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -412,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,51 +437,54 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -494,34 +497,34 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>111</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>222</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>333</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1111</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2222</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>333</v>
       </c>
     </row>
